--- a/Mock_Data/Evaluating.xlsx
+++ b/Mock_Data/Evaluating.xlsx
@@ -1,32 +1,221 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d83216ade753ec4a/Desktop/Mock_Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="11_5734CE56143BDB6E3AFDB80C3A2C459EA88780CA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD90D62D-7CAA-4791-8625-1BAC5C89F513}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="17250" yWindow="780" windowWidth="15240" windowHeight="19605" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Φύλλο1" sheetId="1" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>researcher_id</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>2018-12-11</t>
+  </si>
+  <si>
+    <t>2019-01-04</t>
+  </si>
+  <si>
+    <t>2019-02-04</t>
+  </si>
+  <si>
+    <t>2018-08-05</t>
+  </si>
+  <si>
+    <t>2017-07-05</t>
+  </si>
+  <si>
+    <t>2018-01-24</t>
+  </si>
+  <si>
+    <t>2017-12-13</t>
+  </si>
+  <si>
+    <t>2017-09-06</t>
+  </si>
+  <si>
+    <t>2018-04-07</t>
+  </si>
+  <si>
+    <t>2017-09-29</t>
+  </si>
+  <si>
+    <t>2018-09-05</t>
+  </si>
+  <si>
+    <t>2018-04-06</t>
+  </si>
+  <si>
+    <t>2018-11-22</t>
+  </si>
+  <si>
+    <t>2017-06-04</t>
+  </si>
+  <si>
+    <t>2019-03-20</t>
+  </si>
+  <si>
+    <t>2019-02-26</t>
+  </si>
+  <si>
+    <t>2017-08-13</t>
+  </si>
+  <si>
+    <t>2018-01-05</t>
+  </si>
+  <si>
+    <t>2019-02-25</t>
+  </si>
+  <si>
+    <t>2018-06-21</t>
+  </si>
+  <si>
+    <t>2018-12-17</t>
+  </si>
+  <si>
+    <t>2019-01-31</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-01-19</t>
+  </si>
+  <si>
+    <t>2018-01-22</t>
+  </si>
+  <si>
+    <t>2018-11-09</t>
+  </si>
+  <si>
+    <t>2018-03-23</t>
+  </si>
+  <si>
+    <t>2018-07-24</t>
+  </si>
+  <si>
+    <t>2019-01-02</t>
+  </si>
+  <si>
+    <t>2017-11-23</t>
+  </si>
+  <si>
+    <t>2017-10-04</t>
+  </si>
+  <si>
+    <t>2017-11-29</t>
+  </si>
+  <si>
+    <t>2017-08-20</t>
+  </si>
+  <si>
+    <t>2018-10-18</t>
+  </si>
+  <si>
+    <t>2019-02-18</t>
+  </si>
+  <si>
+    <t>2018-11-10</t>
+  </si>
+  <si>
+    <t>2019-03-05</t>
+  </si>
+  <si>
+    <t>2018-12-19</t>
+  </si>
+  <si>
+    <t>2018-11-24</t>
+  </si>
+  <si>
+    <t>2018-08-15</t>
+  </si>
+  <si>
+    <t>2017-06-09</t>
+  </si>
+  <si>
+    <t>2018-04-12</t>
+  </si>
+  <si>
+    <t>2018-09-11</t>
+  </si>
+  <si>
+    <t>2018-08-22</t>
+  </si>
+  <si>
+    <t>2018-02-04</t>
+  </si>
+  <si>
+    <t>2018-05-26</t>
+  </si>
+  <si>
+    <t>2018-07-21</t>
+  </si>
+  <si>
+    <t>2019-05-03</t>
+  </si>
+  <si>
+    <t>2018-02-20</t>
+  </si>
+  <si>
+    <t>2018-10-27</t>
+  </si>
+  <si>
+    <t>2018-12-02</t>
+  </si>
+  <si>
+    <t>2018-04-21</t>
+  </si>
+  <si>
+    <t>2018-07-01</t>
+  </si>
+  <si>
+    <t>2018-02-10</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="161"/>
     </font>
   </fonts>
   <fills count="2">
@@ -46,17 +235,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -69,7 +262,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -85,7 +278,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -97,7 +290,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -114,7 +307,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -144,12 +337,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -179,6 +389,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -330,13 +557,876 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="6.25" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>60</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>81</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>81</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>120</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>96</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <v>34</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="1">
+        <v>72</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="1">
+        <v>101</v>
+      </c>
+      <c r="D14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1">
+        <v>104</v>
+      </c>
+      <c r="D15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="1">
+        <v>113</v>
+      </c>
+      <c r="D16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="1">
+        <v>38</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="1">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>81</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1">
+        <v>93</v>
+      </c>
+      <c r="D20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="1">
+        <v>54</v>
+      </c>
+      <c r="D21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1">
+        <v>16</v>
+      </c>
+      <c r="D22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="1">
+        <v>41</v>
+      </c>
+      <c r="D23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1">
+        <v>77</v>
+      </c>
+      <c r="D24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="1">
+        <v>104</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="1">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="1">
+        <v>76</v>
+      </c>
+      <c r="D28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="1">
+        <v>58</v>
+      </c>
+      <c r="D29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="1">
+        <v>97</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="1">
+        <v>24</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1">
+        <v>108</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <v>46</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="1">
+        <v>53</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1">
+        <v>115</v>
+      </c>
+      <c r="D35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="1">
+        <v>110</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="1">
+        <v>86</v>
+      </c>
+      <c r="D37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1">
+        <v>11</v>
+      </c>
+      <c r="D38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1">
+        <v>107</v>
+      </c>
+      <c r="D39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1">
+        <v>43</v>
+      </c>
+      <c r="D40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1">
+        <v>114</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="1">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" s="1">
+        <v>111</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1">
+        <v>84</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" s="1">
+        <v>77</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="1">
+        <v>117</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C47" s="1">
+        <v>58</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C48" s="1">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="1">
+        <v>46</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C50" s="1">
+        <v>59</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1">
+        <v>42</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="1">
+        <v>100</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>10</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="1">
+        <v>98</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1">
+        <v>29</v>
+      </c>
+      <c r="D54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="1">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="1">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="1">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="1">
+        <v>119</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59" s="1">
+        <v>93</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" s="1">
+        <v>113</v>
+      </c>
+      <c r="D60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>1</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" s="1">
+        <v>103</v>
+      </c>
+      <c r="D61">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>